--- a/Dokumentation/GANTT_IPA.xlsx
+++ b/Dokumentation/GANTT_IPA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zorien\Documents\GitHub\fit4ipa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zorien\Documents\GitHub\fit4ipa\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,12 +86,6 @@
     <t>Korrigieren &amp; hochladen</t>
   </si>
   <si>
-    <t>Tests implementieren</t>
-  </si>
-  <si>
-    <t>Testen</t>
-  </si>
-  <si>
     <t>Error Handling</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Testkonzept entwerfen</t>
   </si>
   <si>
-    <t>Entity implementieren</t>
-  </si>
-  <si>
     <t>Dao implementieren</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>Doku</t>
+  </si>
+  <si>
+    <t>Tests durchführen</t>
+  </si>
+  <si>
+    <t>Tests dokumentieren</t>
+  </si>
+  <si>
+    <t>Entity erstellen</t>
   </si>
 </sst>
 </file>
@@ -631,92 +631,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,14 +1315,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>185699</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>200461</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>173249</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>170578</xdr:rowOff>
     </xdr:to>
@@ -1339,8 +1339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13592735" y="7451912"/>
-          <a:ext cx="211667" cy="148166"/>
+          <a:off x="13194128" y="7465519"/>
+          <a:ext cx="205264" cy="148166"/>
         </a:xfrm>
         <a:prstGeom prst="heptagon">
           <a:avLst/>
@@ -1738,8 +1738,8 @@
   </sheetPr>
   <dimension ref="B1:AU48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>4</v>
@@ -1917,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>4</v>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>4</v>
@@ -1941,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X4" s="14" t="s">
         <v>4</v>
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>4</v>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>4</v>
@@ -1977,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ4" s="14" t="s">
         <v>4</v>
@@ -1989,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="AM4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN4" s="16" t="s">
         <v>4</v>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="AQ4" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR4" s="14" t="s">
         <v>4</v>
@@ -2013,12 +2013,12 @@
         <v>6</v>
       </c>
       <c r="AU4" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>10</v>
@@ -2074,22 +2074,22 @@
       <c r="AU5" s="13"/>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="70">
+      <c r="B6" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="68">
         <v>1</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="66">
+      <c r="D6" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="64">
         <v>1</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="64">
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -2134,12 +2134,12 @@
       <c r="AU6" s="39"/>
     </row>
     <row r="7" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -2182,20 +2182,20 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="70">
+      <c r="B8" s="56"/>
+      <c r="C8" s="68">
         <v>2</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="66">
+      <c r="D8" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="64">
         <v>3</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>3</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="64">
         <v>0</v>
       </c>
       <c r="H8" s="10"/>
@@ -2240,12 +2240,12 @@
       <c r="AU8" s="39"/>
     </row>
     <row r="9" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="8"/>
       <c r="I9" s="29"/>
       <c r="J9" s="7"/>
@@ -2288,18 +2288,18 @@
       <c r="AU9" s="40"/>
     </row>
     <row r="10" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="68">
+      <c r="B10" s="56"/>
+      <c r="C10" s="66">
         <v>3</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="68">
+      <c r="D10" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="66">
         <v>1</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2342,12 +2342,12 @@
       <c r="AU10" s="39"/>
     </row>
     <row r="11" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2390,21 +2390,21 @@
       <c r="AU11" s="40"/>
     </row>
     <row r="12" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="68">
+      <c r="B12" s="56"/>
+      <c r="C12" s="66">
         <v>4</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="64">
+        <v>1</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="66">
-        <v>1</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>35</v>
+      <c r="G12" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="1"/>
@@ -2432,12 +2432,12 @@
       <c r="AU12" s="41"/>
     </row>
     <row r="13" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="25"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -2480,20 +2480,20 @@
       <c r="AU13" s="42"/>
     </row>
     <row r="14" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="58">
         <v>5</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="58">
         <v>6</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="12"/>
@@ -2536,12 +2536,12 @@
       <c r="AU14" s="41"/>
     </row>
     <row r="15" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2584,18 +2584,18 @@
       <c r="AU15" s="40"/>
     </row>
     <row r="16" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="57">
+      <c r="B16" s="56"/>
+      <c r="C16" s="61">
         <v>6</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="57">
+      <c r="D16" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="61">
         <v>6</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="6"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2638,12 +2638,12 @@
       <c r="AU16" s="41"/>
     </row>
     <row r="17" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -2689,17 +2689,17 @@
       <c r="B18" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="74">
         <v>7</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="76">
+        <v>44</v>
+      </c>
+      <c r="E18" s="75">
         <v>4</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="6"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2743,11 +2743,11 @@
     </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B19" s="81"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2791,17 +2791,17 @@
     </row>
     <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20" s="81"/>
-      <c r="C20" s="68">
+      <c r="C20" s="66">
         <v>8</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="68">
+      <c r="D20" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="66">
         <v>4</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="K20" s="2"/>
       <c r="L20" s="34"/>
       <c r="O20" s="2"/>
@@ -2827,11 +2827,11 @@
     </row>
     <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21" s="81"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2875,17 +2875,17 @@
     </row>
     <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22" s="81"/>
-      <c r="C22" s="68">
+      <c r="C22" s="66">
         <v>9</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="68">
+      <c r="D22" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="66">
         <v>4</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2929,11 +2929,11 @@
     </row>
     <row r="23" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B23" s="81"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="8"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2977,17 +2977,17 @@
     </row>
     <row r="24" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B24" s="81"/>
-      <c r="C24" s="55">
+      <c r="C24" s="83">
         <v>10</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="D24" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="83">
         <v>6</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3031,11 +3031,11 @@
     </row>
     <row r="25" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B25" s="81"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -3079,17 +3079,17 @@
     </row>
     <row r="26" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B26" s="81"/>
-      <c r="C26" s="55">
+      <c r="C26" s="83">
         <v>11</v>
       </c>
-      <c r="D26" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="55">
+      <c r="D26" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="83">
         <v>4</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3133,11 +3133,11 @@
     </row>
     <row r="27" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B27" s="81"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3181,17 +3181,17 @@
     </row>
     <row r="28" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B28" s="81"/>
-      <c r="C28" s="55">
+      <c r="C28" s="83">
         <v>12</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="55">
+      <c r="D28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="83">
         <v>4</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3235,11 +3235,11 @@
     </row>
     <row r="29" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -3283,17 +3283,17 @@
     </row>
     <row r="30" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B30" s="81"/>
-      <c r="C30" s="70">
+      <c r="C30" s="68">
         <v>13</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="68">
+      <c r="D30" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="66">
         <v>4</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="K30" s="2"/>
       <c r="L30" s="34"/>
       <c r="O30" s="2"/>
@@ -3320,11 +3320,11 @@
     </row>
     <row r="31" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B31" s="81"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -3368,17 +3368,17 @@
     </row>
     <row r="32" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B32" s="81"/>
-      <c r="C32" s="68">
+      <c r="C32" s="66">
         <v>14</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="68">
+      <c r="D32" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="66">
         <v>2</v>
       </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
       <c r="K32" s="2"/>
       <c r="L32" s="34"/>
       <c r="O32" s="2"/>
@@ -3405,11 +3405,11 @@
     </row>
     <row r="33" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
@@ -3455,17 +3455,17 @@
       <c r="B34" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="61">
         <v>15</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="57">
+      <c r="D34" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="61">
         <v>6</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="6"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3509,11 +3509,11 @@
     </row>
     <row r="35" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B35" s="81"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="8"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -3561,10 +3561,10 @@
         <v>16</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E36" s="78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="78"/>
       <c r="G36" s="78"/>
@@ -3585,7 +3585,7 @@
       <c r="AJ36" s="34"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="12"/>
+      <c r="AM36" s="2"/>
       <c r="AN36" s="34"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="34"/>
@@ -3594,11 +3594,11 @@
     </row>
     <row r="37" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="82"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="25"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
@@ -3641,20 +3641,20 @@
       <c r="AU37" s="42"/>
     </row>
     <row r="38" spans="2:47" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="75">
+      <c r="B38" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="74">
         <v>17</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="76">
+      <c r="E38" s="75">
         <v>18</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="6"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3686,23 +3686,23 @@
       <c r="AJ38" s="34"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
+      <c r="AM38" s="12"/>
       <c r="AN38" s="37"/>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12"/>
-      <c r="AQ38" s="12"/>
+      <c r="AQ38" s="2"/>
       <c r="AR38" s="34"/>
       <c r="AS38" s="2"/>
       <c r="AT38" s="20"/>
       <c r="AU38" s="41"/>
     </row>
     <row r="39" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="8"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3745,18 +3745,18 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="68">
+      <c r="B40" s="56"/>
+      <c r="C40" s="66">
         <v>18</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="68">
-        <v>4</v>
-      </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
+      <c r="E40" s="66">
+        <v>6</v>
+      </c>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
       <c r="K40" s="2"/>
       <c r="L40" s="34"/>
       <c r="O40" s="2"/>
@@ -3774,19 +3774,19 @@
       <c r="AJ40" s="34"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="34"/>
-      <c r="AQ40" s="2"/>
+      <c r="AQ40" s="12"/>
       <c r="AR40" s="37"/>
       <c r="AS40" s="4"/>
       <c r="AT40" s="20"/>
       <c r="AU40" s="41"/>
     </row>
     <row r="41" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3829,10 +3829,10 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="2:47" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="74"/>
+      <c r="C42" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="73"/>
       <c r="E42" s="28">
         <f>SUM(E6:E41)</f>
         <v>84</v>
@@ -3850,24 +3850,24 @@
     <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3896,6 +3896,7 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
@@ -3907,6 +3908,18 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
@@ -3959,7 +3972,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
@@ -3970,18 +3982,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
